--- a/calcLS/ls.xlsx
+++ b/calcLS/ls.xlsx
@@ -68,36 +68,56 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -142,7 +162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,41 +186,43 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,13 +231,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="見出し" xfId="20"/>
+    <cellStyle name="結果" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -281,14 +305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,9 +338,11 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
+        <f aca="false">makedata!A1</f>
         <v>1</v>
       </c>
       <c r="B1" s="2" t="n">
+        <f aca="false">makedata!B1</f>
         <v>145.99494818877</v>
       </c>
       <c r="C1" s="1"/>
@@ -379,9 +405,11 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
+        <f aca="false">makedata!A2</f>
         <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
+        <f aca="false">makedata!B2</f>
         <v>58.2590630773676</v>
       </c>
       <c r="C2" s="1"/>
@@ -443,18 +471,20 @@
       </c>
       <c r="S2" s="2" t="n">
         <f aca="false">SUM(J:J)</f>
-        <v>491.7752731454</v>
+        <v>491.775273145399</v>
       </c>
       <c r="T2" s="5" t="n">
         <f aca="false">SUM(K:K)</f>
-        <v>280.674744200103</v>
+        <v>280.674744200102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
+        <f aca="false">makedata!A3</f>
         <v>3</v>
       </c>
       <c r="B3" s="7" t="n">
+        <f aca="false">makedata!B3</f>
         <v>76.4207329339647</v>
       </c>
       <c r="C3" s="1"/>
@@ -1295,7 +1325,7 @@
       </c>
       <c r="S19" s="8" t="n">
         <f aca="false">M19*R2+N19*S2+O19*T2</f>
-        <v>-36.1512626480832</v>
+        <v>-36.1512626480824</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1383,7 @@
       </c>
       <c r="S20" s="8" t="n">
         <f aca="false">M20*R2+N20*S2+O20*T2</f>
-        <v>127.637950991345</v>
+        <v>127.637950991343</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,7 +1418,7 @@
       </c>
       <c r="S21" s="8" t="n">
         <f aca="false">M21*R2+N21*S2+O21*T2</f>
-        <v>1.04823576625975</v>
+        <v>1.04823576625979</v>
       </c>
     </row>
   </sheetData>
@@ -1396,21 +1426,21 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="A3:B3 C32"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1944,8 +1974,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>